--- a/templates/QARSF/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/QARSF/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>API Mode</t>
   </si>
@@ -258,6 +258,24 @@
   </si>
   <si>
     <t>RMA-5MZ0-1-3</t>
+  </si>
+  <si>
+    <t>RMA-96UZ-001</t>
+  </si>
+  <si>
+    <t>a6h1K000000Q2FJQA0</t>
+  </si>
+  <si>
+    <t>RMA-96UZ-1-1</t>
+  </si>
+  <si>
+    <t>RMA-V2KN-001</t>
+  </si>
+  <si>
+    <t>a6h1K000000Q2JGQA0</t>
+  </si>
+  <si>
+    <t>RMA-V2KN-1-1</t>
   </si>
 </sst>
 </file>
@@ -267,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +305,102 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -369,7 +483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -395,11 +509,35 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -413,8 +551,24 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="14" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1297,10 +1451,10 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1309,7 +1463,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
